--- a/data/items/itemsWORKBOOK.xlsx
+++ b/data/items/itemsWORKBOOK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameDev\Projects\Psyokin\data\items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D4C09-54AC-4E42-B13E-D6FB17E08D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A57752-5172-4DA9-9EB3-B2E064DD8DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="793" xr2:uid="{3DC06797-DF42-4A20-B1D4-AE1AB78E8A9F}"/>
+    <workbookView xWindow="2790" yWindow="2625" windowWidth="33495" windowHeight="17940" tabRatio="793" activeTab="5" xr2:uid="{3DC06797-DF42-4A20-B1D4-AE1AB78E8A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="22" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="185">
   <si>
     <t>item_id</t>
   </si>
@@ -519,9 +519,6 @@
     <t>Family Picture</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>shop_start</t>
   </si>
   <si>
@@ -619,6 +616,33 @@
   </si>
   <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sigil_tier </t>
+  </si>
+  <si>
+    <t>WEA_002</t>
+  </si>
+  <si>
+    <t>Plastic Wand</t>
+  </si>
+  <si>
+    <t>Simple magicians wand.</t>
+  </si>
+  <si>
+    <t>"A plastic wand for channeling magic."</t>
+  </si>
+  <si>
+    <t>BRA_002</t>
+  </si>
+  <si>
+    <t>Metal Bracelet</t>
+  </si>
+  <si>
+    <t>"A metal bracelet with 2 slots."</t>
+  </si>
+  <si>
+    <t>"A metal bracelet with 2 slots. Very sturdy."</t>
   </si>
 </sst>
 </file>
@@ -628,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General;General;[Red]&quot;null&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +792,21 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1132,14 +1171,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1214,8 +1251,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BBC6FF8B-EC42-4B0F-9E43-EA87B63E5A4A}" name="tblWeapons" displayName="tblWeapons" ref="A1:BA2" totalsRowShown="0">
-  <autoFilter ref="A1:BA2" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BBC6FF8B-EC42-4B0F-9E43-EA87B63E5A4A}" name="tblWeapons" displayName="tblWeapons" ref="A1:BA3" totalsRowShown="0">
+  <autoFilter ref="A1:BA3" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{F32DF897-9830-4D56-AE8A-B4BF336C13EB}" name="item_id"/>
     <tableColumn id="2" xr3:uid="{BDA6FD61-A300-4D42-8989-4A0128313308}" name="name"/>
@@ -1586,8 +1623,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1FB482EF-2914-46F3-8D27-375231B51D39}" name="tblBracelets" displayName="tblBracelets" ref="A1:BA2" totalsRowShown="0">
-  <autoFilter ref="A1:BA2" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1FB482EF-2914-46F3-8D27-375231B51D39}" name="tblBracelets" displayName="tblBracelets" ref="A1:BA3" totalsRowShown="0">
+  <autoFilter ref="A1:BA3" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{57519A9A-A6E2-424F-A4D8-C04C641255BA}" name="item_id"/>
     <tableColumn id="2" xr3:uid="{FD9DD2C9-ED99-42C0-BA4D-C11009D0BAFD}" name="name"/>
@@ -2212,21 +2249,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B1308D-EBD5-4B85-B543-34EF1A52AC7F}">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showZeros="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="53" width="9.140625" style="3"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.140625" style="4" customWidth="1"/>
+    <col min="2" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="12.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="4" customWidth="1"/>
+    <col min="20" max="25" width="9.140625" style="4"/>
+    <col min="26" max="26" width="13.42578125" style="4" customWidth="1"/>
+    <col min="27" max="47" width="9.140625" style="4"/>
+    <col min="48" max="48" width="8.5703125" style="4" customWidth="1"/>
+    <col min="49" max="53" width="9.140625" style="4"/>
+    <col min="54" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str" cm="1">
-        <f t="array" ref="A1:BA12">_xlfn.LET(_xlpm.W, tblWeapons[], _xlpm.A, tblArmor[], _xlpm.H, tblHeadwear[],_xlpm.F, tblFootwear[],_xlpm.B, tblBracelets[],_xlpm.S, tblSigils[],_xlpm.C, tblConsumables[],_xlpm.M, tblMaterials[],_xlpm.G, tblGifts[],_xlpm.K, tblKeys[],_xlpm.Data, _xlfn.VSTACK(_xlpm.W, _xlpm.A, _xlpm.H,_xlpm.F,_xlpm.B,_xlpm.S,_xlpm.C,_xlpm.M,_xlpm.G,_xlpm.K),_xlpm.NonBlank, _xlfn._xlws.FILTER(_xlpm.Data, _xlfn.BYROW(_xlpm.Data, _xlfn.LAMBDA(_xlpm.r, COUNTA(_xlpm.r)&gt;0))),_xlfn.VSTACK(tblWeapons[#Headers], _xlpm.NonBlank))</f>
+        <f t="array" ref="A1:BA14">_xlfn.LET(_xlpm.W, tblWeapons[], _xlpm.A, tblArmor[], _xlpm.H, tblHeadwear[],_xlpm.F, tblFootwear[],_xlpm.B, tblBracelets[],_xlpm.S, tblSigils[],_xlpm.C, tblConsumables[],_xlpm.M, tblMaterials[],_xlpm.G, tblGifts[],_xlpm.K, tblKeys[],_xlpm.Data, _xlfn.VSTACK(_xlpm.W, _xlpm.A, _xlpm.H,_xlpm.F,_xlpm.B,_xlpm.S,_xlpm.C,_xlpm.M,_xlpm.G,_xlpm.K),_xlpm.NonBlank, _xlfn._xlws.FILTER(_xlpm.Data, _xlfn.BYROW(_xlpm.Data, _xlfn.LAMBDA(_xlpm.r, COUNTA(_xlpm.r)&gt;0))),_xlfn.VSTACK(tblWeapons[#Headers], _xlpm.NonBlank))</f>
         <v>item_id</v>
       </c>
       <c r="B1" s="2" t="str">
@@ -2387,1773 +2432,2095 @@
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="4" t="str">
         <v>WEA_001</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="4" t="str">
         <v>Bokken</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="4" t="str">
         <v>Weapons</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="4" t="str">
         <v>Weapon</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>100</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>50</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="str">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="str">
         <v>shop_start</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="4" t="str">
         <v>Starter gear</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="N2" s="4" t="str">
         <v>"Simple wooden practice sword"</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="O2" s="4" t="str">
         <v>"A wooden practice sword used for training. Safe and non lethal."</v>
       </c>
-      <c r="P2" s="3" t="str">
+      <c r="P2" s="4" t="str">
         <v>none</v>
       </c>
-      <c r="Q2" s="3" t="str">
+      <c r="Q2" s="4" t="str">
         <v>slash</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
         <v>3</v>
       </c>
-      <c r="S2" s="3">
+      <c r="AA2" s="4">
         <v>80</v>
       </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y2" s="3" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="3" t="str">
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4" t="str">
         <v>Starter</v>
       </c>
-      <c r="AV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="3">
+      <c r="AV2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
-        <v>ARM_001</v>
-      </c>
-      <c r="B3" s="3" t="str">
-        <v>Cloth Armor</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Armor</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>Armor</v>
-      </c>
-      <c r="E3" s="3" t="str">
+      <c r="A3" s="4" t="str">
+        <v>WEA_002</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>Plastic Wand</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>Weapons</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <v>Weapon</v>
+      </c>
+      <c r="E3" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>120</v>
-      </c>
-      <c r="H3" s="3">
-        <v>60</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="str">
-        <v>"Basic cloth bodywear. Minimal Protection."</v>
-      </c>
-      <c r="O3" s="3" t="str">
-        <v>"Simple, lightweight garb that offers almost no physical protection. Comfortable and easy to move in."</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>14</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="3" t="str">
-        <v>Starter</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="3">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <v>shop_start</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <v>Simple magicians wand.</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <v>"A plastic wand for channeling magic."</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <v>wand</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
-        <v>HEA_001</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <v>Cap</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Headwear</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>Headwear</v>
-      </c>
-      <c r="E4" s="3" t="str">
+      <c r="A4" s="4" t="str">
+        <v>ARM_001</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>Cloth Armor</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>Armor</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>Armor</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>90</v>
-      </c>
-      <c r="H4" s="3">
-        <v>45</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="str">
-        <v>"Simple cloth cap. Minor MDEF."</v>
-      </c>
-      <c r="O4" s="3" t="str">
-        <v>"A basic cap that offers a small boost to Mind Defense and a touch of vitality."</v>
-      </c>
-      <c r="P4" s="3" t="str">
-        <v>none</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>4</v>
-      </c>
-      <c r="T4" s="3">
-        <v>10</v>
-      </c>
-      <c r="U4" s="3">
-        <v>5</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="3" t="str">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>120</v>
+      </c>
+      <c r="H4" s="4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <v>"Basic cloth bodywear. Minimal Protection."</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <v>"Simple, lightweight garb that offers almost no physical protection. Comfortable and easy to move in."</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>14</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4" t="str">
         <v>Starter</v>
       </c>
-      <c r="AV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="3">
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
-        <v>FTW_001</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <v>Sandles</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>Footwear</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>Footwear</v>
-      </c>
-      <c r="E5" s="3" t="str">
+      <c r="A5" s="4" t="str">
+        <v>HEA_001</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <v>Cap</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <v>Headwear</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <v>Headwear</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>120</v>
-      </c>
-      <c r="H5" s="3">
-        <v>60</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="str">
-        <v>"Light sandals that breathe."</v>
-      </c>
-      <c r="O5" s="3" t="str">
-        <v>Simple footwear that offers a small boost to evasion and initiative.</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="3" t="str">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <v>"Simple cloth cap. Minor MDEF."</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <v>"A basic cap that offers a small boost to Mind Defense and a touch of vitality."</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>4</v>
+      </c>
+      <c r="T5" s="4">
+        <v>10</v>
+      </c>
+      <c r="U5" s="4">
+        <v>5</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="4" t="str">
         <v>Starter</v>
       </c>
-      <c r="AV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="3">
+      <c r="AV5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
-        <v>BRA_001</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <v>Simple Cuff</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <v>Bracelets</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <v>Bracelet</v>
-      </c>
-      <c r="E6" s="3" t="str">
+      <c r="A6" s="4" t="str">
+        <v>FTW_001</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>Sandles</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>Footwear</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>Footwear</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>150</v>
-      </c>
-      <c r="H6" s="3">
-        <v>75</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <v>"A simple wrist cuff with a single socket."</v>
-      </c>
-      <c r="O6" s="3" t="str">
-        <v>"A plain bracelet fitted with one sigil slot. Good for first-time socketing."</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="3">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <v>"Light sandals that breathe."</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <v>Simple footwear that offers a small boost to evasion and initiative.</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4" t="str">
+        <v>Starter</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="str">
-        <v>SIG_001</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <v>Fire Sigil</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <v>Sigils</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <v>Sigil</v>
-      </c>
-      <c r="E7" s="3" t="str">
+      <c r="A7" s="4" t="str">
+        <v>BRA_001</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <v>Simple Cuff</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <v>Bracelets</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <v>Bracelet</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>120</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="str">
-        <v>"Ignite a foe."</v>
-      </c>
-      <c r="O7" s="3" t="str">
-        <v>"A basic Fire sigil that deals minor fire damage to a single enemy."</v>
-      </c>
-      <c r="P7" s="3" t="str">
-        <v>fire</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3" t="str">
-        <v>Fire</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="3" t="str">
-        <v>battle</v>
-      </c>
-      <c r="AL7" s="3" t="str">
-        <v>Enemy</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3" t="str">
-        <v>"Deal 30 Fire DMG"</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="3">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>150</v>
+      </c>
+      <c r="H7" s="4">
+        <v>75</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <v>"A simple wrist cuff with a single socket."</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <v>"A plain bracelet fitted with one sigil slot. Good for first-time socketing."</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
-        <v>CON_001</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <v>Health Drink</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>Consumables</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <v>none</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <v>Common</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>99</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="str">
-        <v>"Restores a bit of health."</v>
-      </c>
-      <c r="O8" s="3" t="str">
-        <v>"A basic sports drink that restores 50 HP to one ally."</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="3" t="str">
-        <v>both</v>
-      </c>
-      <c r="AL8" s="3" t="str">
-        <v>Ally</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="3" t="str">
-        <v>"Heal 50 HP"</v>
-      </c>
-      <c r="AP8" s="3" t="str">
-        <v>"Heal 50 HP"</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="3" t="str">
-        <v>none</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="3">
+      <c r="A8" s="4" t="str">
+        <v>BRA_002</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>Metal Bracelet</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>Bracelets</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>Bracelet</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>Uncommon</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>300</v>
+      </c>
+      <c r="H8" s="4">
+        <v>150</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <v>"A metal bracelet with 2 slots."</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <v>"A metal bracelet with 2 slots. Very sturdy."</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
-        <v>CON_002</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <v>Mind Drink</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>Consumables</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <v>none</v>
-      </c>
-      <c r="E9" s="3" t="str">
+      <c r="A9" s="4" t="str">
+        <v>SIG_001</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <v>Fire Sigil</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <v>Sigils</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <v>Sigil</v>
+      </c>
+      <c r="E9" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4">
         <v>60</v>
       </c>
-      <c r="H9" s="3">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>99</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="str">
-        <v>"Restores a some mind points."</v>
-      </c>
-      <c r="O9" s="3" t="str">
-        <v>"A basic sports drink that restores 30 MP to one ally."</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3" t="str">
-        <v>both</v>
-      </c>
-      <c r="AL9" s="3" t="str">
-        <v>Ally</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="3" t="str">
-        <v>"Heal 30 MP"</v>
-      </c>
-      <c r="AP9" s="3" t="str">
-        <v>"Heal 30 MP"</v>
-      </c>
-      <c r="AQ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="3" t="str">
-        <v>none</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="3">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <v>"Ignite a foe."</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <v>"A basic Fire sigil that deals minor fire damage to a single enemy."</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <v>fire</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4" t="str">
+        <v>Fire</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="str">
+        <v>battle</v>
+      </c>
+      <c r="AL9" s="4" t="str">
+        <v>Enemy</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4" t="str">
+        <v>"Deal 30 Fire DMG"</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
-        <v>MAT_001</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <v>Rock</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <v>Materials</v>
-      </c>
-      <c r="D10" s="3" t="str">
+      <c r="A10" s="4" t="str">
+        <v>CON_001</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>Health Drink</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>Consumables</v>
+      </c>
+      <c r="D10" s="4" t="str">
         <v>none</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
         <v>99</v>
       </c>
-      <c r="L10" s="3" t="str">
-        <v>lowland_node</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="str">
-        <v>"Basic crafting material."</v>
-      </c>
-      <c r="O10" s="3" t="str">
-        <v>"A small, common stone used in early-game crafting recipes."</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="3">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <v>"Restores a bit of health."</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <v>"A basic sports drink that restores 50 HP to one ally."</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <v>both</v>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <v>Ally</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="4" t="str">
+        <v>"Heal 50 HP"</v>
+      </c>
+      <c r="AP10" s="4" t="str">
+        <v>"Heal 50 HP"</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
-        <v>GIF_001</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <v>Earing</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <v>Gifts</v>
-      </c>
-      <c r="D11" s="3" t="str">
+      <c r="A11" s="4" t="str">
+        <v>CON_002</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <v>Mind Drink</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <v>Consumables</v>
+      </c>
+      <c r="D11" s="4" t="str">
         <v>none</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="4" t="str">
         <v>Common</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>120</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4">
         <v>30</v>
       </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="str">
-        <v>"Simple silver earring."</v>
-      </c>
-      <c r="O11" s="3" t="str">
-        <v>"A modest silver earring; some circle members love small accessories."</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="3" t="str">
-        <v>Fashion</v>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>99</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <v>"Restores a some mind points."</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <v>"A basic sports drink that restores 30 MP to one ally."</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="4" t="str">
+        <v>both</v>
+      </c>
+      <c r="AL11" s="4" t="str">
+        <v>Ally</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="4" t="str">
+        <v>"Heal 30 MP"</v>
+      </c>
+      <c r="AP11" s="4" t="str">
+        <v>"Heal 30 MP"</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="4" t="str">
+        <v>MAT_001</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v>Rock</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>Materials</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>99</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <v>lowland_node</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <v>"Basic crafting material."</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <v>"A small, common stone used in early-game crafting recipes."</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <v>GIF_001</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <v>Earing</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <v>Gifts</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>120</v>
+      </c>
+      <c r="H13" s="4">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <v>"Simple silver earring."</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <v>"A modest silver earring; some circle members love small accessories."</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="4" t="str">
+        <v>Fashion</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
         <v>KEY_001</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B14" s="4" t="str">
         <v>Family Picture</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C14" s="4" t="str">
         <v>Key</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D14" s="4" t="str">
         <v>none</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E14" s="4" t="str">
         <v>Legendary</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="str">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="str">
         <v>"A worn family photo."</v>
       </c>
-      <c r="O12" s="3" t="str">
+      <c r="O14" s="4" t="str">
         <v>"You can’t bring yourself to part with it. A key story keepsake."</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="3" t="str">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="4" t="str">
         <v>Family</v>
       </c>
-      <c r="AV12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="3">
+      <c r="AV14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4414,10 +4781,10 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O2" t="s">
         <v>172</v>
-      </c>
-      <c r="O2" t="s">
-        <v>173</v>
       </c>
       <c r="BA2" t="s">
         <v>121</v>
@@ -4747,13 +5114,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" t="s">
         <v>174</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AU2" t="s">
         <v>175</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5114,9 +5481,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF70BAED-1CCC-4897-A17B-9072CAE7056D}">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="BB1" sqref="BB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5167,7 +5536,7 @@
     <col min="53" max="53" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5327,8 +5696,11 @@
       <c r="BA1" t="s">
         <v>52</v>
       </c>
+      <c r="BB1" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -5414,59 +5786,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CBD075-C257-4FCD-AB92-B4C7D6AF494A}">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="17" width="17.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" customWidth="1"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="20" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="13.140625" customWidth="1"/>
-    <col min="49" max="49" width="15.28515625" customWidth="1"/>
-    <col min="50" max="50" width="16" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="11" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="18" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
+    <col min="32" max="32" width="0" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="37" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -5662,16 +5996,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
         <v>144</v>
       </c>
-      <c r="M2" t="s">
-        <v>145</v>
-      </c>
       <c r="N2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" t="s">
         <v>153</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="P2" t="s">
         <v>74</v>
@@ -5679,30 +6013,6 @@
       <c r="Q2" t="s">
         <v>90</v>
       </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>80</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>143</v>
-      </c>
       <c r="Z2">
         <v>3</v>
       </c>
@@ -5722,77 +6032,142 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>70</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA2" xr:uid="{0F56BBA4-2DA2-4026-9C35-1929447B45A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA3" xr:uid="{0F56BBA4-2DA2-4026-9C35-1929447B45A2}">
       <formula1>list_gift_type</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW2" xr:uid="{8C705DE9-A0BC-47A7-986A-13D3DA6DFF05}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW3" xr:uid="{8C705DE9-A0BC-47A7-986A-13D3DA6DFF05}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR2" xr:uid="{9784A87C-C778-4BEA-9A45-49EFF384D133}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR3" xr:uid="{9784A87C-C778-4BEA-9A45-49EFF384D133}">
       <formula1>list_capture_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL2" xr:uid="{A0ED3852-E602-4D8A-8D12-4E49C23F3847}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL3" xr:uid="{A0ED3852-E602-4D8A-8D12-4E49C23F3847}">
       <formula1>list_targeting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK2" xr:uid="{82858FF7-1981-4A30-A100-84690AB26E1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK3" xr:uid="{82858FF7-1981-4A30-A100-84690AB26E1A}">
       <formula1>list_use_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG2" xr:uid="{08EA0076-B1F0-444E-9A2A-13FAD47B31B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG3" xr:uid="{08EA0076-B1F0-444E-9A2A-13FAD47B31B1}">
       <formula1>list_sigil_school</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF2" xr:uid="{54A9D8F8-802A-4C5D-9410-9DFD356A35E1}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF3" xr:uid="{54A9D8F8-802A-4C5D-9410-9DFD356A35E1}">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2" xr:uid="{487878E6-8A35-4571-BA6D-221F0DC83106}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC3" xr:uid="{487878E6-8A35-4571-BA6D-221F0DC83106}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA2" xr:uid="{7B1D9E86-0F5F-4C63-A06E-F1FE383A9EC4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA3" xr:uid="{7B1D9E86-0F5F-4C63-A06E-F1FE383A9EC4}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V2" xr:uid="{F0011205-85C1-4551-AE94-A9C466AABD8F}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V3" xr:uid="{F0011205-85C1-4551-AE94-A9C466AABD8F}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2" xr:uid="{F0D89B48-FF33-4AE1-852A-B036789B225A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3" xr:uid="{F0D89B48-FF33-4AE1-852A-B036789B225A}">
       <formula1>list_watk_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P2" xr:uid="{9E90C6BB-E2B5-4B9F-9481-80B8F85645D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3" xr:uid="{9E90C6BB-E2B5-4B9F-9481-80B8F85645D7}">
       <formula1>list_mind_type</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2" xr:uid="{538D3006-960B-45E8-B904-CE8875CD617D}">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3" xr:uid="{538D3006-960B-45E8-B904-CE8875CD617D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2" xr:uid="{314C84D4-FDD7-4DCA-8D12-8DC62AEE2EE1}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N3" xr:uid="{314C84D4-FDD7-4DCA-8D12-8DC62AEE2EE1}">
       <formula1>120</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2" xr:uid="{E6E8953B-1E9C-4FAE-A38B-B11C125B5F7A}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K3" xr:uid="{E6E8953B-1E9C-4FAE-A38B-B11C125B5F7A}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 AE1:AE2" xr:uid="{A49A4F51-99E2-45BA-A552-5309AC79807B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3 AE1:AE3" xr:uid="{A49A4F51-99E2-45BA-A552-5309AC79807B}">
       <formula1>list_boolean</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I2 R1:U2 X1:Z2 AB1:AB2 AD1:AD2 AM1:AN2 AQ1:AQ2 AT1:AT2" xr:uid="{F367677A-F4C7-40EE-9F0C-B5F8808A1CA0}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I3 R1:U3 X1:Z3 AB1:AB3 AD1:AD3 AM1:AN3 AQ1:AQ3 AT1:AT3" xr:uid="{F367677A-F4C7-40EE-9F0C-B5F8808A1CA0}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2" xr:uid="{B26C4728-86B0-4349-A787-F8CD4223734A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3" xr:uid="{B26C4728-86B0-4349-A787-F8CD4223734A}">
       <formula1>list_rarity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2" xr:uid="{C26A9A7C-646E-4BF6-8C46-F95249140B61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3" xr:uid="{C26A9A7C-646E-4BF6-8C46-F95249140B61}">
       <formula1>list_equip_slot</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{23A7A77B-56DE-446B-8691-04702DAFB88B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3" xr:uid="{23A7A77B-56DE-446B-8691-04702DAFB88B}">
       <formula1>list_category</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{EA0988DF-728D-4987-A49D-1A6B5C74E0DE}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3" xr:uid="{EA0988DF-728D-4987-A49D-1A6B5C74E0DE}">
       <formula1>1</formula1>
       <formula2>60</formula2>
     </dataValidation>
@@ -5809,7 +6184,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,16 +6430,19 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" t="s">
         <v>151</v>
-      </c>
-      <c r="O2" t="s">
-        <v>152</v>
       </c>
       <c r="R2">
         <v>14</v>
       </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
       <c r="AU2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6151,7 +6529,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6397,10 +6775,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" t="s">
         <v>149</v>
-      </c>
-      <c r="O2" t="s">
-        <v>150</v>
       </c>
       <c r="P2" t="s">
         <v>74</v>
@@ -6415,7 +6793,7 @@
         <v>5</v>
       </c>
       <c r="AU2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6747,10 +7125,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" t="s">
         <v>147</v>
-      </c>
-      <c r="O2" t="s">
-        <v>148</v>
       </c>
       <c r="X2">
         <v>3</v>
@@ -6759,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="AU2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6843,15 +7221,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5BD1EB-EDA5-486E-B061-143EABAA45C1}">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="7" max="8" width="11.85546875" customWidth="1"/>
@@ -7092,84 +7471,125 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" t="s">
         <v>155</v>
       </c>
-      <c r="O2" t="s">
-        <v>156</v>
-      </c>
       <c r="AF2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{8A2E7C26-1D31-423F-AAD8-BFC7F1BB57F8}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3" xr:uid="{8A2E7C26-1D31-423F-AAD8-BFC7F1BB57F8}">
       <formula1>1</formula1>
       <formula2>60</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{2910DD0C-DDD1-4FCB-A01C-0843BBAACBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3" xr:uid="{2910DD0C-DDD1-4FCB-A01C-0843BBAACBF6}">
       <formula1>list_category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2" xr:uid="{56B24151-2E99-4F56-8F78-18FA63035A0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3" xr:uid="{56B24151-2E99-4F56-8F78-18FA63035A0C}">
       <formula1>list_equip_slot</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2" xr:uid="{9F08B41D-61DE-4844-9236-1A5081AB7813}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3" xr:uid="{9F08B41D-61DE-4844-9236-1A5081AB7813}">
       <formula1>list_rarity</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I2 R1:U2 X1:Z2 AB1:AB2 AD1:AD2 AM1:AN2 AQ1:AQ2 AT1:AT2" xr:uid="{8D3368F0-2D72-4373-B224-E03EB1CE37F5}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I3 R1:U3 X1:Z3 AB1:AB3 AD1:AD3 AM1:AN3 AQ1:AQ3 AT1:AT3" xr:uid="{8D3368F0-2D72-4373-B224-E03EB1CE37F5}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 AE1:AE2" xr:uid="{C77AB53D-53C9-4DD3-92E8-D2DDAD012036}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3 AE1:AE3" xr:uid="{C77AB53D-53C9-4DD3-92E8-D2DDAD012036}">
       <formula1>list_boolean</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2" xr:uid="{A702A770-2800-4CC1-AA54-65CA846650FB}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K3" xr:uid="{A702A770-2800-4CC1-AA54-65CA846650FB}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2" xr:uid="{3102C215-43FE-45F4-8190-B447451342F7}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N3" xr:uid="{3102C215-43FE-45F4-8190-B447451342F7}">
       <formula1>120</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2" xr:uid="{7561A646-1C61-42E6-844A-92061E77BA3E}">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3" xr:uid="{7561A646-1C61-42E6-844A-92061E77BA3E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P2" xr:uid="{9B79DB02-3808-4C0E-818E-03B69C23B9D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3" xr:uid="{9B79DB02-3808-4C0E-818E-03B69C23B9D3}">
       <formula1>list_mind_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2" xr:uid="{B26AB36B-3CBA-43B4-993F-C163529EF16B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3" xr:uid="{B26AB36B-3CBA-43B4-993F-C163529EF16B}">
       <formula1>list_watk_type</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V2" xr:uid="{8CE8F1FD-7449-4AEB-A13F-41AE615896F1}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V3" xr:uid="{8CE8F1FD-7449-4AEB-A13F-41AE615896F1}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA2" xr:uid="{45875EB2-F9AE-43D4-BE5E-EAE7D5A53DF4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA3" xr:uid="{45875EB2-F9AE-43D4-BE5E-EAE7D5A53DF4}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2" xr:uid="{5CEF5B2C-765A-4B4E-9390-6B83358A8305}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC3" xr:uid="{5CEF5B2C-765A-4B4E-9390-6B83358A8305}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF2" xr:uid="{DE5DAF45-5133-406A-9A6D-17BEEF5ECCB4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF3" xr:uid="{DE5DAF45-5133-406A-9A6D-17BEEF5ECCB4}">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG2" xr:uid="{AA824E34-D3C1-4C40-90C2-6322E1C527AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG3" xr:uid="{AA824E34-D3C1-4C40-90C2-6322E1C527AF}">
       <formula1>list_sigil_school</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK2" xr:uid="{4920C196-967A-4EE5-AB26-C9AF523E1E95}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK3" xr:uid="{4920C196-967A-4EE5-AB26-C9AF523E1E95}">
       <formula1>list_use_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL2" xr:uid="{DA905425-CBB6-4BB0-84FE-C0F5B88440F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL3" xr:uid="{DA905425-CBB6-4BB0-84FE-C0F5B88440F6}">
       <formula1>list_targeting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR2" xr:uid="{5B1052DE-7EB0-45D8-A9CD-29A91A8AEEF3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR3" xr:uid="{5B1052DE-7EB0-45D8-A9CD-29A91A8AEEF3}">
       <formula1>list_capture_type</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW2" xr:uid="{99261B80-1198-4241-95BC-CB4C82B04451}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW3" xr:uid="{99261B80-1198-4241-95BC-CB4C82B04451}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA2" xr:uid="{9176829E-D038-4D20-9ECB-AAF75E727AEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA3" xr:uid="{9176829E-D038-4D20-9ECB-AAF75E727AEB}">
       <formula1>list_gift_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -7184,8 +7604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782F3198-6067-4BC9-81A1-E2DEF4C07151}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7405,7 +7825,7 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -7432,10 +7852,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" t="s">
         <v>158</v>
-      </c>
-      <c r="O2" t="s">
-        <v>159</v>
       </c>
       <c r="P2" t="s">
         <v>83</v>
@@ -7453,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7471,7 +7891,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2" xr:uid="{72728A0A-67E4-407A-94E5-10426650303B}">
       <formula1>list_rarity</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I2 R1:U2 X1:Z2 AB1:AB2 AD1:AD2 AM1:AN2 AQ1:AQ2 AT1:AT2" xr:uid="{9599E056-76B1-4487-A2C7-284AC0AD44F8}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I2 R1:U2 X1:Z2 AB1:AB2 AD1:AD2 AM1:AN2 AQ1:AQ2 AT1:AT2 AG1" xr:uid="{9599E056-76B1-4487-A2C7-284AC0AD44F8}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 AE1:AE2" xr:uid="{DD3F6C56-F803-4BB7-BE4B-AC7B7EE9AB6A}">
@@ -7788,10 +8208,10 @@
         <v>99</v>
       </c>
       <c r="N2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" t="s">
         <v>161</v>
-      </c>
-      <c r="O2" t="s">
-        <v>162</v>
       </c>
       <c r="AK2" t="s">
         <v>104</v>
@@ -7799,12 +8219,11 @@
       <c r="AL2" t="s">
         <v>106</v>
       </c>
-      <c r="AN2" s="5"/>
       <c r="AO2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AP2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR2" t="s">
         <v>74</v>
@@ -7812,10 +8231,10 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -7842,10 +8261,10 @@
         <v>99</v>
       </c>
       <c r="N3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" t="s">
         <v>166</v>
-      </c>
-      <c r="O3" t="s">
-        <v>167</v>
       </c>
       <c r="AK3" t="s">
         <v>104</v>
@@ -7853,12 +8272,11 @@
       <c r="AL3" t="s">
         <v>106</v>
       </c>
-      <c r="AN3" s="5"/>
       <c r="AO3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AP3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR3" t="s">
         <v>74</v>
@@ -8196,15 +8614,15 @@
         <v>99</v>
       </c>
       <c r="L2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" t="s">
         <v>169</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>170</v>
       </c>
-      <c r="O2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU2" s="6"/>
+      <c r="AU2" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="21">

--- a/data/items/itemsWORKBOOK.xlsx
+++ b/data/items/itemsWORKBOOK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameDev\Projects\Psyokin\data\items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A57752-5172-4DA9-9EB3-B2E064DD8DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24903AC6-D4C7-4C70-A0C2-A65837121469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2625" windowWidth="33495" windowHeight="17940" tabRatio="793" activeTab="5" xr2:uid="{3DC06797-DF42-4A20-B1D4-AE1AB78E8A9F}"/>
+    <workbookView xWindow="1965" yWindow="1935" windowWidth="35040" windowHeight="17940" tabRatio="793" activeTab="6" xr2:uid="{3DC06797-DF42-4A20-B1D4-AE1AB78E8A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="22" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="211">
   <si>
     <t>item_id</t>
   </si>
@@ -643,6 +643,84 @@
   </si>
   <si>
     <t>"A metal bracelet with 2 slots. Very sturdy."</t>
+  </si>
+  <si>
+    <t>SIG_002</t>
+  </si>
+  <si>
+    <t>Water Sigil</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Splash a foe.</t>
+  </si>
+  <si>
+    <t>A basic Water sigil that deals minor water damage to a single enemy.</t>
+  </si>
+  <si>
+    <t>Deal 30 Water DMG</t>
+  </si>
+  <si>
+    <t>SIG_003</t>
+  </si>
+  <si>
+    <t>SIG_004</t>
+  </si>
+  <si>
+    <t>SIG_005</t>
+  </si>
+  <si>
+    <t>SIG_006</t>
+  </si>
+  <si>
+    <t>Earth Sigil</t>
+  </si>
+  <si>
+    <t>Air Sigil</t>
+  </si>
+  <si>
+    <t>Void Sigil</t>
+  </si>
+  <si>
+    <t>Data Sigil</t>
+  </si>
+  <si>
+    <t>It's pocket sand.</t>
+  </si>
+  <si>
+    <t>Blow them away.</t>
+  </si>
+  <si>
+    <t>Don't stare too long.</t>
+  </si>
+  <si>
+    <t>Give your foe a 404 erorr.</t>
+  </si>
+  <si>
+    <t>A basic Earth sigil that deals minor earth damage to a single enemy.</t>
+  </si>
+  <si>
+    <t>A basic Air sigil that deals minor air damage to a single enemy.</t>
+  </si>
+  <si>
+    <t>A basic Void sigil that deals minor void damage to a single enemy.</t>
+  </si>
+  <si>
+    <t>A basic Data sigil that deals minor data damage to a single enemy.</t>
+  </si>
+  <si>
+    <t>Deal 30 Earth DMG</t>
+  </si>
+  <si>
+    <t>Deal 30 Air DMG</t>
+  </si>
+  <si>
+    <t>Deal 30 Void DMG</t>
+  </si>
+  <si>
+    <t>Deal 30 Data DMG</t>
   </si>
 </sst>
 </file>
@@ -1685,8 +1763,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E05CB7CE-2FCC-4455-89EC-7620263AB97F}" name="tblSigils" displayName="tblSigils" ref="A1:BA2" totalsRowShown="0">
-  <autoFilter ref="A1:BA2" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E05CB7CE-2FCC-4455-89EC-7620263AB97F}" name="tblSigils" displayName="tblSigils" ref="A1:BA7" totalsRowShown="0">
+  <autoFilter ref="A1:BA7" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{18A53ACC-FC62-418F-8BB5-D7F51FEAD9D5}" name="item_id"/>
     <tableColumn id="2" xr3:uid="{20C6EDB1-F572-414E-816D-12291DE3A678}" name="name"/>
@@ -2249,7 +2327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B1308D-EBD5-4B85-B543-34EF1A52AC7F}">
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AF29" sqref="AF29"/>
@@ -2271,7 +2349,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str" cm="1">
-        <f t="array" ref="A1:BA14">_xlfn.LET(_xlpm.W, tblWeapons[], _xlpm.A, tblArmor[], _xlpm.H, tblHeadwear[],_xlpm.F, tblFootwear[],_xlpm.B, tblBracelets[],_xlpm.S, tblSigils[],_xlpm.C, tblConsumables[],_xlpm.M, tblMaterials[],_xlpm.G, tblGifts[],_xlpm.K, tblKeys[],_xlpm.Data, _xlfn.VSTACK(_xlpm.W, _xlpm.A, _xlpm.H,_xlpm.F,_xlpm.B,_xlpm.S,_xlpm.C,_xlpm.M,_xlpm.G,_xlpm.K),_xlpm.NonBlank, _xlfn._xlws.FILTER(_xlpm.Data, _xlfn.BYROW(_xlpm.Data, _xlfn.LAMBDA(_xlpm.r, COUNTA(_xlpm.r)&gt;0))),_xlfn.VSTACK(tblWeapons[#Headers], _xlpm.NonBlank))</f>
+        <f t="array" ref="A1:BA19">_xlfn.LET(_xlpm.W, tblWeapons[], _xlpm.A, tblArmor[], _xlpm.H, tblHeadwear[],_xlpm.F, tblFootwear[],_xlpm.B, tblBracelets[],_xlpm.S, tblSigils[],_xlpm.C, tblConsumables[],_xlpm.M, tblMaterials[],_xlpm.G, tblGifts[],_xlpm.K, tblKeys[],_xlpm.Data, _xlfn.VSTACK(_xlpm.W, _xlpm.A, _xlpm.H,_xlpm.F,_xlpm.B,_xlpm.S,_xlpm.C,_xlpm.M,_xlpm.G,_xlpm.K),_xlpm.NonBlank, _xlfn._xlws.FILTER(_xlpm.Data, _xlfn.BYROW(_xlpm.Data, _xlfn.LAMBDA(_xlpm.r, COUNTA(_xlpm.r)&gt;0))),_xlfn.VSTACK(tblWeapons[#Headers], _xlpm.NonBlank))</f>
         <v>item_id</v>
       </c>
       <c r="B1" s="2" t="str">
@@ -3721,16 +3799,16 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <v>CON_001</v>
+        <v>SIG_002</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Health Drink</v>
+        <v>Water Sigil</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Consumables</v>
+        <v>Sigils</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>none</v>
+        <v>Sigil</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>Common</v>
@@ -3739,10 +3817,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H10" s="4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -3751,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -3760,79 +3838,79 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="str">
-        <v>"Restores a bit of health."</v>
+        <v>Splash a foe.</v>
       </c>
       <c r="O10" s="4" t="str">
-        <v>"A basic sports drink that restores 50 HP to one ally."</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>0</v>
+        <v>A basic Water sigil that deals minor water damage to a single enemy.</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <v>water</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="U10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="V10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="X10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <v>Water</v>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <v>null</v>
       </c>
       <c r="AK10" s="4" t="str">
-        <v>both</v>
+        <v>battle</v>
       </c>
       <c r="AL10" s="4" t="str">
-        <v>Ally</v>
+        <v>Enemy</v>
       </c>
       <c r="AM10" s="4">
         <v>0</v>
@@ -3841,22 +3919,22 @@
         <v>0</v>
       </c>
       <c r="AO10" s="4" t="str">
-        <v>"Heal 50 HP"</v>
-      </c>
-      <c r="AP10" s="4" t="str">
-        <v>"Heal 50 HP"</v>
+        <v>Deal 30 Water DMG</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>0</v>
       </c>
       <c r="AQ10" s="4">
         <v>0</v>
       </c>
       <c r="AR10" s="4" t="str">
-        <v>none</v>
-      </c>
-      <c r="AS10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="4">
-        <v>0</v>
+        <v>null</v>
+      </c>
+      <c r="AS10" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AT10" s="4" t="str">
+        <v>null</v>
       </c>
       <c r="AU10" s="4">
         <v>0</v>
@@ -3876,22 +3954,22 @@
       <c r="AZ10" s="4">
         <v>0</v>
       </c>
-      <c r="BA10" s="4">
-        <v>0</v>
+      <c r="BA10" s="4" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
-        <v>CON_002</v>
+        <v>SIG_003</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>Mind Drink</v>
+        <v>Earth Sigil</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>Consumables</v>
+        <v>Sigils</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>none</v>
+        <v>Sigil</v>
       </c>
       <c r="E11" s="4" t="str">
         <v>Common</v>
@@ -3900,11 +3978,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
+        <v>120</v>
+      </c>
+      <c r="H11" s="4">
         <v>60</v>
       </c>
-      <c r="H11" s="4">
-        <v>30</v>
-      </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
@@ -3912,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
@@ -3921,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="str">
-        <v>"Restores a some mind points."</v>
+        <v>It's pocket sand.</v>
       </c>
       <c r="O11" s="4" t="str">
-        <v>"A basic sports drink that restores 30 MP to one ally."</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
+        <v>A basic Earth sigil that deals minor earth damage to a single enemy.</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <v>earth</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -3977,8 +4055,8 @@
       <c r="AF11" s="4">
         <v>0</v>
       </c>
-      <c r="AG11" s="4">
-        <v>0</v>
+      <c r="AG11" s="4" t="str">
+        <v>Earth</v>
       </c>
       <c r="AH11" s="4">
         <v>0</v>
@@ -3990,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="AK11" s="4" t="str">
-        <v>both</v>
+        <v>battle</v>
       </c>
       <c r="AL11" s="4" t="str">
-        <v>Ally</v>
+        <v>Enemy</v>
       </c>
       <c r="AM11" s="4">
         <v>0</v>
@@ -4002,16 +4080,16 @@
         <v>0</v>
       </c>
       <c r="AO11" s="4" t="str">
-        <v>"Heal 30 MP"</v>
-      </c>
-      <c r="AP11" s="4" t="str">
-        <v>"Heal 30 MP"</v>
+        <v>Deal 30 Earth DMG</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>0</v>
       </c>
       <c r="AQ11" s="4">
         <v>0</v>
       </c>
-      <c r="AR11" s="4" t="str">
-        <v>none</v>
+      <c r="AR11" s="4">
+        <v>0</v>
       </c>
       <c r="AS11" s="4">
         <v>0</v>
@@ -4043,16 +4121,16 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <v>MAT_001</v>
+        <v>SIG_004</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Rock</v>
+        <v>Air Sigil</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Materials</v>
+        <v>Sigils</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>none</v>
+        <v>Sigil</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>Common</v>
@@ -4061,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="H12" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -4073,22 +4151,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>99</v>
-      </c>
-      <c r="L12" s="4" t="str">
-        <v>lowland_node</v>
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="str">
-        <v>"Basic crafting material."</v>
+        <v>Blow them away.</v>
       </c>
       <c r="O12" s="4" t="str">
-        <v>"A small, common stone used in early-game crafting recipes."</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
+        <v>A basic Air sigil that deals minor air damage to a single enemy.</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <v>air</v>
       </c>
       <c r="Q12" s="4">
         <v>0</v>
@@ -4138,8 +4216,8 @@
       <c r="AF12" s="4">
         <v>0</v>
       </c>
-      <c r="AG12" s="4">
-        <v>0</v>
+      <c r="AG12" s="4" t="str">
+        <v>Air</v>
       </c>
       <c r="AH12" s="4">
         <v>0</v>
@@ -4150,11 +4228,11 @@
       <c r="AJ12" s="4">
         <v>0</v>
       </c>
-      <c r="AK12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>0</v>
+      <c r="AK12" s="4" t="str">
+        <v>battle</v>
+      </c>
+      <c r="AL12" s="4" t="str">
+        <v>Enemy</v>
       </c>
       <c r="AM12" s="4">
         <v>0</v>
@@ -4162,8 +4240,8 @@
       <c r="AN12" s="4">
         <v>0</v>
       </c>
-      <c r="AO12" s="4">
-        <v>0</v>
+      <c r="AO12" s="4" t="str">
+        <v>Deal 30 Air DMG</v>
       </c>
       <c r="AP12" s="4">
         <v>0</v>
@@ -4204,16 +4282,16 @@
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <v>GIF_001</v>
+        <v>SIG_005</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>Earing</v>
+        <v>Void Sigil</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>Gifts</v>
+        <v>Sigils</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>none</v>
+        <v>Sigil</v>
       </c>
       <c r="E13" s="4" t="str">
         <v>Common</v>
@@ -4225,7 +4303,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -4234,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
@@ -4243,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="str">
-        <v>"Simple silver earring."</v>
+        <v>Don't stare too long.</v>
       </c>
       <c r="O13" s="4" t="str">
-        <v>"A modest silver earring; some circle members love small accessories."</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
+        <v>A basic Void sigil that deals minor void damage to a single enemy.</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <v>data</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>
@@ -4299,8 +4377,8 @@
       <c r="AF13" s="4">
         <v>0</v>
       </c>
-      <c r="AG13" s="4">
-        <v>0</v>
+      <c r="AG13" s="4" t="str">
+        <v>Data</v>
       </c>
       <c r="AH13" s="4">
         <v>0</v>
@@ -4311,11 +4389,11 @@
       <c r="AJ13" s="4">
         <v>0</v>
       </c>
-      <c r="AK13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>0</v>
+      <c r="AK13" s="4" t="str">
+        <v>battle</v>
+      </c>
+      <c r="AL13" s="4" t="str">
+        <v>Enemy</v>
       </c>
       <c r="AM13" s="4">
         <v>0</v>
@@ -4323,8 +4401,8 @@
       <c r="AN13" s="4">
         <v>0</v>
       </c>
-      <c r="AO13" s="4">
-        <v>0</v>
+      <c r="AO13" s="4" t="str">
+        <v>Deal 30 Void DMG</v>
       </c>
       <c r="AP13" s="4">
         <v>0</v>
@@ -4359,168 +4437,973 @@
       <c r="AZ13" s="4">
         <v>0</v>
       </c>
-      <c r="BA13" s="4" t="str">
-        <v>Fashion</v>
+      <c r="BA13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
+        <v>SIG_006</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <v>Data Sigil</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>Sigils</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v>Sigil</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>120</v>
+      </c>
+      <c r="H14" s="4">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <v>Give your foe a 404 erorr.</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <v>A basic Data sigil that deals minor data damage to a single enemy.</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <v>void</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4" t="str">
+        <v>Void</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4" t="str">
+        <v>battle</v>
+      </c>
+      <c r="AL14" s="4" t="str">
+        <v>Enemy</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="4" t="str">
+        <v>Deal 30 Data DMG</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <v>CON_001</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <v>Health Drink</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v>Consumables</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>30</v>
+      </c>
+      <c r="H15" s="4">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>99</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <v>"Restores a bit of health."</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <v>"A basic sports drink that restores 50 HP to one ally."</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4" t="str">
+        <v>both</v>
+      </c>
+      <c r="AL15" s="4" t="str">
+        <v>Ally</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="4" t="str">
+        <v>"Heal 50 HP"</v>
+      </c>
+      <c r="AP15" s="4" t="str">
+        <v>"Heal 50 HP"</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <v>CON_002</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>Mind Drink</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>Consumables</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>99</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <v>"Restores a some mind points."</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <v>"A basic sports drink that restores 30 MP to one ally."</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4" t="str">
+        <v>both</v>
+      </c>
+      <c r="AL16" s="4" t="str">
+        <v>Ally</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="4" t="str">
+        <v>"Heal 30 MP"</v>
+      </c>
+      <c r="AP16" s="4" t="str">
+        <v>"Heal 30 MP"</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
+        <v>MAT_001</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <v>Rock</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <v>Materials</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>99</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <v>lowland_node</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <v>"Basic crafting material."</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <v>"A small, common stone used in early-game crafting recipes."</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
+        <v>GIF_001</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <v>Earing</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <v>Gifts</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>120</v>
+      </c>
+      <c r="H18" s="4">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <v>"Simple silver earring."</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <v>"A modest silver earring; some circle members love small accessories."</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="4" t="str">
+        <v>Fashion</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
         <v>KEY_001</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B19" s="4" t="str">
         <v>Family Picture</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="C19" s="4" t="str">
         <v>Key</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D19" s="4" t="str">
         <v>none</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E19" s="4" t="str">
         <v>Legendary</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4" t="str">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="str">
         <v>"A worn family photo."</v>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="O19" s="4" t="str">
         <v>"You can’t bring yourself to part with it. A key story keepsake."</v>
       </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4">
-        <v>0</v>
-      </c>
-      <c r="W14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="4" t="str">
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="4" t="str">
         <v>Family</v>
       </c>
-      <c r="AV14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="4">
+      <c r="AV19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7223,7 +8106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5BD1EB-EDA5-486E-B061-143EABAA45C1}">
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
@@ -7602,10 +8485,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782F3198-6067-4BC9-81A1-E2DEF4C07151}">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7876,75 +8759,425 @@
         <v>159</v>
       </c>
     </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V3" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" t="s">
+        <v>187</v>
+      </c>
+      <c r="X3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>120</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" t="s">
+        <v>204</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>120</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="21">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{7FDB170D-1CF7-4DD6-9002-ECB1ABD45887}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B7" xr:uid="{7FDB170D-1CF7-4DD6-9002-ECB1ABD45887}">
       <formula1>1</formula1>
       <formula2>60</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{E2BA580E-F9C0-4B1D-B518-4CB1589D57DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C7" xr:uid="{E2BA580E-F9C0-4B1D-B518-4CB1589D57DD}">
       <formula1>list_category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2" xr:uid="{87CFCB66-E17C-462F-9F6E-80C2D4B16AAA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D7" xr:uid="{87CFCB66-E17C-462F-9F6E-80C2D4B16AAA}">
       <formula1>list_equip_slot</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2" xr:uid="{72728A0A-67E4-407A-94E5-10426650303B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E7" xr:uid="{72728A0A-67E4-407A-94E5-10426650303B}">
       <formula1>list_rarity</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I2 R1:U2 X1:Z2 AB1:AB2 AD1:AD2 AM1:AN2 AQ1:AQ2 AT1:AT2 AG1" xr:uid="{9599E056-76B1-4487-A2C7-284AC0AD44F8}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 AE1:AE2" xr:uid="{DD3F6C56-F803-4BB7-BE4B-AC7B7EE9AB6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE7 J1:J7" xr:uid="{DD3F6C56-F803-4BB7-BE4B-AC7B7EE9AB6A}">
       <formula1>list_boolean</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2" xr:uid="{8476F686-FE2B-4F16-B57C-1E61864F89C4}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K7" xr:uid="{8476F686-FE2B-4F16-B57C-1E61864F89C4}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2" xr:uid="{2B917806-5C7A-4C77-B347-B693613401FC}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N7" xr:uid="{2B917806-5C7A-4C77-B347-B693613401FC}">
       <formula1>120</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2" xr:uid="{2AB0490B-1422-4838-9861-F0C5E3B266A6}">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O7" xr:uid="{2AB0490B-1422-4838-9861-F0C5E3B266A6}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P2" xr:uid="{20A400E7-5604-4EF8-8A3A-D33E7EB60E93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P7" xr:uid="{20A400E7-5604-4EF8-8A3A-D33E7EB60E93}">
       <formula1>list_mind_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2" xr:uid="{0050C0FA-9E7D-43AA-964F-9281E5A99A60}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q7" xr:uid="{0050C0FA-9E7D-43AA-964F-9281E5A99A60}">
       <formula1>list_watk_type</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V2" xr:uid="{59070A2B-9E48-49E7-96A6-117072745A41}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V7" xr:uid="{59070A2B-9E48-49E7-96A6-117072745A41}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA2" xr:uid="{1190C7E3-9346-4A86-8AB8-A87724C921D9}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA7" xr:uid="{1190C7E3-9346-4A86-8AB8-A87724C921D9}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2" xr:uid="{6B5C7E16-9BA0-4960-8B83-29C18C5BCFDD}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC7" xr:uid="{6B5C7E16-9BA0-4960-8B83-29C18C5BCFDD}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF2" xr:uid="{47F36D5E-BDCF-48E7-AC28-2213E6686B40}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF7" xr:uid="{47F36D5E-BDCF-48E7-AC28-2213E6686B40}">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG2" xr:uid="{031D9C6E-C01C-4C68-BDBD-E68D66606D43}">
       <formula1>list_sigil_school</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK2" xr:uid="{488DDBB8-70EE-4731-80F1-5CB77F334FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK7" xr:uid="{488DDBB8-70EE-4731-80F1-5CB77F334FBF}">
       <formula1>list_use_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL2" xr:uid="{5F258C43-3936-483E-81B6-C8C888C88F2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL7" xr:uid="{5F258C43-3936-483E-81B6-C8C888C88F2B}">
       <formula1>list_targeting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR2" xr:uid="{CFFEA656-93FB-4B77-B9BB-87A43AD29CB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR7" xr:uid="{CFFEA656-93FB-4B77-B9BB-87A43AD29CB2}">
       <formula1>list_capture_type</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW2" xr:uid="{665038BC-260A-429B-9D56-C283B2C349AC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW7" xr:uid="{665038BC-260A-429B-9D56-C283B2C349AC}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA2" xr:uid="{5CFEEE6B-C42D-4E8C-9652-05F446023962}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA7" xr:uid="{5CFEEE6B-C42D-4E8C-9652-05F446023962}">
       <formula1>list_gift_type</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/items/itemsWORKBOOK.xlsx
+++ b/data/items/itemsWORKBOOK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameDev\Projects\Psyokin\data\items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24903AC6-D4C7-4C70-A0C2-A65837121469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530CB192-5992-4723-8288-09C5BAEA2833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1935" windowWidth="35040" windowHeight="17940" tabRatio="793" activeTab="6" xr2:uid="{3DC06797-DF42-4A20-B1D4-AE1AB78E8A9F}"/>
+    <workbookView xWindow="345" yWindow="2910" windowWidth="35040" windowHeight="17940" tabRatio="793" activeTab="1" xr2:uid="{3DC06797-DF42-4A20-B1D4-AE1AB78E8A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="22" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="215">
   <si>
     <t>item_id</t>
   </si>
@@ -721,6 +721,18 @@
   </si>
   <si>
     <t>Deal 30 Data DMG</t>
+  </si>
+  <si>
+    <t>Pointy Stick</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>WEA_003</t>
+  </si>
+  <si>
+    <t>WEA_004</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BBC6FF8B-EC42-4B0F-9E43-EA87B63E5A4A}" name="tblWeapons" displayName="tblWeapons" ref="A1:BA3" totalsRowShown="0">
-  <autoFilter ref="A1:BA3" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BBC6FF8B-EC42-4B0F-9E43-EA87B63E5A4A}" name="tblWeapons" displayName="tblWeapons" ref="A1:BA5" totalsRowShown="0">
+  <autoFilter ref="A1:BA5" xr:uid="{6B45D362-841E-4115-BA5F-5ADB6CDEE454}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{F32DF897-9830-4D56-AE8A-B4BF336C13EB}" name="item_id"/>
     <tableColumn id="2" xr3:uid="{BDA6FD61-A300-4D42-8989-4A0128313308}" name="name"/>
@@ -2327,7 +2339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B1308D-EBD5-4B85-B543-34EF1A52AC7F}">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AF29" sqref="AF29"/>
@@ -2349,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str" cm="1">
-        <f t="array" ref="A1:BA19">_xlfn.LET(_xlpm.W, tblWeapons[], _xlpm.A, tblArmor[], _xlpm.H, tblHeadwear[],_xlpm.F, tblFootwear[],_xlpm.B, tblBracelets[],_xlpm.S, tblSigils[],_xlpm.C, tblConsumables[],_xlpm.M, tblMaterials[],_xlpm.G, tblGifts[],_xlpm.K, tblKeys[],_xlpm.Data, _xlfn.VSTACK(_xlpm.W, _xlpm.A, _xlpm.H,_xlpm.F,_xlpm.B,_xlpm.S,_xlpm.C,_xlpm.M,_xlpm.G,_xlpm.K),_xlpm.NonBlank, _xlfn._xlws.FILTER(_xlpm.Data, _xlfn.BYROW(_xlpm.Data, _xlfn.LAMBDA(_xlpm.r, COUNTA(_xlpm.r)&gt;0))),_xlfn.VSTACK(tblWeapons[#Headers], _xlpm.NonBlank))</f>
+        <f t="array" ref="A1:BA21">_xlfn.LET(_xlpm.W, tblWeapons[], _xlpm.A, tblArmor[], _xlpm.H, tblHeadwear[],_xlpm.F, tblFootwear[],_xlpm.B, tblBracelets[],_xlpm.S, tblSigils[],_xlpm.C, tblConsumables[],_xlpm.M, tblMaterials[],_xlpm.G, tblGifts[],_xlpm.K, tblKeys[],_xlpm.Data, _xlfn.VSTACK(_xlpm.W, _xlpm.A, _xlpm.H,_xlpm.F,_xlpm.B,_xlpm.S,_xlpm.C,_xlpm.M,_xlpm.G,_xlpm.K),_xlpm.NonBlank, _xlfn._xlws.FILTER(_xlpm.Data, _xlfn.BYROW(_xlpm.Data, _xlfn.LAMBDA(_xlpm.r, COUNTA(_xlpm.r)&gt;0))),_xlfn.VSTACK(tblWeapons[#Headers], _xlpm.NonBlank))</f>
         <v>item_id</v>
       </c>
       <c r="B1" s="2" t="str">
@@ -2601,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4">
         <v>0</v>
@@ -2809,8 +2821,8 @@
       <c r="AT3" s="4">
         <v>0</v>
       </c>
-      <c r="AU3" s="4">
-        <v>0</v>
+      <c r="AU3" s="4" t="str">
+        <v>Starter</v>
       </c>
       <c r="AV3" s="4">
         <v>0</v>
@@ -2833,16 +2845,16 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
-        <v>ARM_001</v>
+        <v>WEA_003</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Cloth Armor</v>
+        <v>Pointy Stick</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Armor</v>
+        <v>Weapons</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Armor</v>
+        <v>Weapon</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>Common</v>
@@ -2851,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -2865,26 +2877,26 @@
       <c r="K4" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
+      <c r="L4" s="4" t="str">
+        <v>shop_start</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <v>Starter gear</v>
       </c>
       <c r="N4" s="4" t="str">
-        <v>"Basic cloth bodywear. Minimal Protection."</v>
+        <v>"Simple wooden practice sword"</v>
       </c>
       <c r="O4" s="4" t="str">
-        <v>"Simple, lightweight garb that offers almost no physical protection. Comfortable and easy to move in."</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
+        <v>"A wooden practice sword used for training. Safe and non lethal."</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <v>pierce</v>
       </c>
       <c r="R4" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4">
         <v>0</v>
@@ -2896,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4">
         <v>0</v>
@@ -2908,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Z4" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB4" s="4">
         <v>0</v>
       </c>
       <c r="AC4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="4">
         <v>0</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="AF4" s="4">
@@ -2994,16 +3006,16 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
-        <v>HEA_001</v>
+        <v>WEA_004</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>Cap</v>
+        <v>Hammer</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Headwear</v>
+        <v>Weapons</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>Headwear</v>
+        <v>Weapon</v>
       </c>
       <c r="E5" s="4" t="str">
         <v>Common</v>
@@ -3012,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H5" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -3026,35 +3038,35 @@
       <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
+      <c r="L5" s="4" t="str">
+        <v>shop_start</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <v>Starter gear</v>
       </c>
       <c r="N5" s="4" t="str">
-        <v>"Simple cloth cap. Minor MDEF."</v>
+        <v>"Simple wooden practice sword"</v>
       </c>
       <c r="O5" s="4" t="str">
-        <v>"A basic cap that offers a small boost to Mind Defense and a touch of vitality."</v>
+        <v>"A wooden practice sword used for training. Safe and non lethal."</v>
       </c>
       <c r="P5" s="4" t="str">
         <v>none</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
+      <c r="Q5" s="4" t="str">
+        <v>impact</v>
       </c>
       <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4">
         <v>0</v>
@@ -3069,21 +3081,21 @@
         <v>0</v>
       </c>
       <c r="Z5" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="4">
         <v>0</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="AF5" s="4">
@@ -3155,16 +3167,16 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
-        <v>FTW_001</v>
+        <v>ARM_001</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Sandles</v>
+        <v>Cloth Armor</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Footwear</v>
+        <v>Armor</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Footwear</v>
+        <v>Armor</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>Common</v>
@@ -3194,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="4" t="str">
-        <v>"Light sandals that breathe."</v>
+        <v>"Basic cloth bodywear. Minimal Protection."</v>
       </c>
       <c r="O6" s="4" t="str">
-        <v>Simple footwear that offers a small boost to evasion and initiative.</v>
+        <v>"Simple, lightweight garb that offers almost no physical protection. Comfortable and easy to move in."</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -3206,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S6" s="4">
         <v>0</v>
@@ -3218,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="V6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="4">
         <v>0</v>
       </c>
       <c r="X6" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4">
         <v>0</v>
@@ -3316,16 +3328,16 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
-        <v>BRA_001</v>
+        <v>HEA_001</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>Simple Cuff</v>
+        <v>Cap</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>Bracelets</v>
+        <v>Headwear</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>Bracelet</v>
+        <v>Headwear</v>
       </c>
       <c r="E7" s="4" t="str">
         <v>Common</v>
@@ -3334,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="H7" s="4">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -3355,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="4" t="str">
-        <v>"A simple wrist cuff with a single socket."</v>
+        <v>"Simple cloth cap. Minor MDEF."</v>
       </c>
       <c r="O7" s="4" t="str">
-        <v>"A plain bracelet fitted with one sigil slot. Good for first-time socketing."</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
+        <v>"A basic cap that offers a small boost to Mind Defense and a touch of vitality."</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <v>none</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -3370,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V7" s="4">
         <v>0</v>
@@ -3409,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="4">
         <v>0</v>
@@ -3453,8 +3465,8 @@
       <c r="AT7" s="4">
         <v>0</v>
       </c>
-      <c r="AU7" s="4">
-        <v>0</v>
+      <c r="AU7" s="4" t="str">
+        <v>Starter</v>
       </c>
       <c r="AV7" s="4">
         <v>0</v>
@@ -3477,28 +3489,28 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <v>BRA_002</v>
+        <v>FTW_001</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Metal Bracelet</v>
+        <v>Sandles</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Bracelets</v>
+        <v>Footwear</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>Bracelet</v>
+        <v>Footwear</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Uncommon</v>
+        <v>Common</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -3516,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="str">
-        <v>"A metal bracelet with 2 slots."</v>
+        <v>"Light sandals that breathe."</v>
       </c>
       <c r="O8" s="4" t="str">
-        <v>"A metal bracelet with 2 slots. Very sturdy."</v>
+        <v>Simple footwear that offers a small boost to evasion and initiative.</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -3546,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="4">
         <v>0</v>
@@ -3570,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="4">
         <v>0</v>
@@ -3614,8 +3626,8 @@
       <c r="AT8" s="4">
         <v>0</v>
       </c>
-      <c r="AU8" s="4">
-        <v>0</v>
+      <c r="AU8" s="4" t="str">
+        <v>Starter</v>
       </c>
       <c r="AV8" s="4">
         <v>0</v>
@@ -3638,16 +3650,16 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <v>SIG_001</v>
+        <v>BRA_001</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>Fire Sigil</v>
+        <v>Simple Cuff</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Sigils</v>
+        <v>Bracelets</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>Sigil</v>
+        <v>Bracelet</v>
       </c>
       <c r="E9" s="4" t="str">
         <v>Common</v>
@@ -3656,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -3677,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="str">
-        <v>"Ignite a foe."</v>
+        <v>"A simple wrist cuff with a single socket."</v>
       </c>
       <c r="O9" s="4" t="str">
-        <v>"A basic Fire sigil that deals minor fire damage to a single enemy."</v>
-      </c>
-      <c r="P9" s="4" t="str">
-        <v>fire</v>
+        <v>"A plain bracelet fitted with one sigil slot. Good for first-time socketing."</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
       </c>
       <c r="Q9" s="4">
         <v>0</v>
@@ -3731,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="AF9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4" t="str">
-        <v>Fire</v>
+        <v>1</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
       </c>
       <c r="AH9" s="4">
         <v>0</v>
@@ -3745,11 +3757,11 @@
       <c r="AJ9" s="4">
         <v>0</v>
       </c>
-      <c r="AK9" s="4" t="str">
-        <v>battle</v>
-      </c>
-      <c r="AL9" s="4" t="str">
-        <v>Enemy</v>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>0</v>
       </c>
       <c r="AM9" s="4">
         <v>0</v>
@@ -3757,8 +3769,8 @@
       <c r="AN9" s="4">
         <v>0</v>
       </c>
-      <c r="AO9" s="4" t="str">
-        <v>"Deal 30 Fire DMG"</v>
+      <c r="AO9" s="4">
+        <v>0</v>
       </c>
       <c r="AP9" s="4">
         <v>0</v>
@@ -3799,28 +3811,28 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <v>SIG_002</v>
+        <v>BRA_002</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Water Sigil</v>
+        <v>Metal Bracelet</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Sigils</v>
+        <v>Bracelets</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Sigil</v>
+        <v>Bracelet</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Common</v>
+        <v>Uncommon</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="H10" s="4">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -3838,79 +3850,79 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="str">
-        <v>Splash a foe.</v>
+        <v>"A metal bracelet with 2 slots."</v>
       </c>
       <c r="O10" s="4" t="str">
-        <v>A basic Water sigil that deals minor water damage to a single enemy.</v>
-      </c>
-      <c r="P10" s="4" t="str">
-        <v>water</v>
-      </c>
-      <c r="Q10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="R10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="S10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="T10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="U10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="V10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="W10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="X10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AA10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AB10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AC10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AD10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AE10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AF10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AG10" s="4" t="str">
-        <v>Water</v>
-      </c>
-      <c r="AH10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AI10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AJ10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AK10" s="4" t="str">
-        <v>battle</v>
-      </c>
-      <c r="AL10" s="4" t="str">
-        <v>Enemy</v>
+        <v>"A metal bracelet with 2 slots. Very sturdy."</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>0</v>
       </c>
       <c r="AM10" s="4">
         <v>0</v>
@@ -3918,8 +3930,8 @@
       <c r="AN10" s="4">
         <v>0</v>
       </c>
-      <c r="AO10" s="4" t="str">
-        <v>Deal 30 Water DMG</v>
+      <c r="AO10" s="4">
+        <v>0</v>
       </c>
       <c r="AP10" s="4">
         <v>0</v>
@@ -3927,14 +3939,14 @@
       <c r="AQ10" s="4">
         <v>0</v>
       </c>
-      <c r="AR10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AS10" s="4" t="str">
-        <v>null</v>
-      </c>
-      <c r="AT10" s="4" t="str">
-        <v>null</v>
+      <c r="AR10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>0</v>
       </c>
       <c r="AU10" s="4">
         <v>0</v>
@@ -3954,16 +3966,16 @@
       <c r="AZ10" s="4">
         <v>0</v>
       </c>
-      <c r="BA10" s="4" t="str">
-        <v>null</v>
+      <c r="BA10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
-        <v>SIG_003</v>
+        <v>SIG_001</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>Earth Sigil</v>
+        <v>Fire Sigil</v>
       </c>
       <c r="C11" s="4" t="str">
         <v>Sigils</v>
@@ -3999,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="str">
-        <v>It's pocket sand.</v>
+        <v>"Ignite a foe."</v>
       </c>
       <c r="O11" s="4" t="str">
-        <v>A basic Earth sigil that deals minor earth damage to a single enemy.</v>
+        <v>"A basic Fire sigil that deals minor fire damage to a single enemy."</v>
       </c>
       <c r="P11" s="4" t="str">
-        <v>earth</v>
+        <v>fire</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -4056,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="4" t="str">
-        <v>Earth</v>
+        <v>Fire</v>
       </c>
       <c r="AH11" s="4">
         <v>0</v>
@@ -4080,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="4" t="str">
-        <v>Deal 30 Earth DMG</v>
+        <v>"Deal 30 Fire DMG"</v>
       </c>
       <c r="AP11" s="4">
         <v>0</v>
@@ -4121,10 +4133,10 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <v>SIG_004</v>
+        <v>SIG_002</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Air Sigil</v>
+        <v>Water Sigil</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>Sigils</v>
@@ -4160,73 +4172,73 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="str">
-        <v>Blow them away.</v>
+        <v>Splash a foe.</v>
       </c>
       <c r="O12" s="4" t="str">
-        <v>A basic Air sigil that deals minor air damage to a single enemy.</v>
+        <v>A basic Water sigil that deals minor water damage to a single enemy.</v>
       </c>
       <c r="P12" s="4" t="str">
-        <v>air</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>0</v>
+        <v>water</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="U12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="V12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="X12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AD12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AE12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AF12" s="4" t="str">
+        <v>null</v>
       </c>
       <c r="AG12" s="4" t="str">
-        <v>Air</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>0</v>
+        <v>Water</v>
+      </c>
+      <c r="AH12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AI12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AJ12" s="4" t="str">
+        <v>null</v>
       </c>
       <c r="AK12" s="4" t="str">
         <v>battle</v>
@@ -4241,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="4" t="str">
-        <v>Deal 30 Air DMG</v>
+        <v>Deal 30 Water DMG</v>
       </c>
       <c r="AP12" s="4">
         <v>0</v>
@@ -4249,14 +4261,14 @@
       <c r="AQ12" s="4">
         <v>0</v>
       </c>
-      <c r="AR12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="4">
-        <v>0</v>
+      <c r="AR12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AS12" s="4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AT12" s="4" t="str">
+        <v>null</v>
       </c>
       <c r="AU12" s="4">
         <v>0</v>
@@ -4276,16 +4288,16 @@
       <c r="AZ12" s="4">
         <v>0</v>
       </c>
-      <c r="BA12" s="4">
-        <v>0</v>
+      <c r="BA12" s="4" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <v>SIG_005</v>
+        <v>SIG_003</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>Void Sigil</v>
+        <v>Earth Sigil</v>
       </c>
       <c r="C13" s="4" t="str">
         <v>Sigils</v>
@@ -4321,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="str">
-        <v>Don't stare too long.</v>
+        <v>It's pocket sand.</v>
       </c>
       <c r="O13" s="4" t="str">
-        <v>A basic Void sigil that deals minor void damage to a single enemy.</v>
+        <v>A basic Earth sigil that deals minor earth damage to a single enemy.</v>
       </c>
       <c r="P13" s="4" t="str">
-        <v>data</v>
+        <v>earth</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>
@@ -4378,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="4" t="str">
-        <v>Data</v>
+        <v>Earth</v>
       </c>
       <c r="AH13" s="4">
         <v>0</v>
@@ -4402,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="4" t="str">
-        <v>Deal 30 Void DMG</v>
+        <v>Deal 30 Earth DMG</v>
       </c>
       <c r="AP13" s="4">
         <v>0</v>
@@ -4443,10 +4455,10 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <v>SIG_006</v>
+        <v>SIG_004</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Data Sigil</v>
+        <v>Air Sigil</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>Sigils</v>
@@ -4482,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="str">
-        <v>Give your foe a 404 erorr.</v>
+        <v>Blow them away.</v>
       </c>
       <c r="O14" s="4" t="str">
-        <v>A basic Data sigil that deals minor data damage to a single enemy.</v>
+        <v>A basic Air sigil that deals minor air damage to a single enemy.</v>
       </c>
       <c r="P14" s="4" t="str">
-        <v>void</v>
+        <v>air</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -4539,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="4" t="str">
-        <v>Void</v>
+        <v>Air</v>
       </c>
       <c r="AH14" s="4">
         <v>0</v>
@@ -4563,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="4" t="str">
-        <v>Deal 30 Data DMG</v>
+        <v>Deal 30 Air DMG</v>
       </c>
       <c r="AP14" s="4">
         <v>0</v>
@@ -4604,16 +4616,16 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <v>CON_001</v>
+        <v>SIG_005</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>Health Drink</v>
+        <v>Void Sigil</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>Consumables</v>
+        <v>Sigils</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>none</v>
+        <v>Sigil</v>
       </c>
       <c r="E15" s="4" t="str">
         <v>Common</v>
@@ -4622,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
@@ -4634,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -4643,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="str">
-        <v>"Restores a bit of health."</v>
+        <v>Don't stare too long.</v>
       </c>
       <c r="O15" s="4" t="str">
-        <v>"A basic sports drink that restores 50 HP to one ally."</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
+        <v>A basic Void sigil that deals minor void damage to a single enemy.</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <v>data</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -4699,8 +4711,8 @@
       <c r="AF15" s="4">
         <v>0</v>
       </c>
-      <c r="AG15" s="4">
-        <v>0</v>
+      <c r="AG15" s="4" t="str">
+        <v>Data</v>
       </c>
       <c r="AH15" s="4">
         <v>0</v>
@@ -4712,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="AK15" s="4" t="str">
-        <v>both</v>
+        <v>battle</v>
       </c>
       <c r="AL15" s="4" t="str">
-        <v>Ally</v>
+        <v>Enemy</v>
       </c>
       <c r="AM15" s="4">
         <v>0</v>
@@ -4724,16 +4736,16 @@
         <v>0</v>
       </c>
       <c r="AO15" s="4" t="str">
-        <v>"Heal 50 HP"</v>
-      </c>
-      <c r="AP15" s="4" t="str">
-        <v>"Heal 50 HP"</v>
+        <v>Deal 30 Void DMG</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>0</v>
       </c>
       <c r="AQ15" s="4">
         <v>0</v>
       </c>
-      <c r="AR15" s="4" t="str">
-        <v>none</v>
+      <c r="AR15" s="4">
+        <v>0</v>
       </c>
       <c r="AS15" s="4">
         <v>0</v>
@@ -4765,16 +4777,16 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <v>CON_002</v>
+        <v>SIG_006</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Mind Drink</v>
+        <v>Data Sigil</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Consumables</v>
+        <v>Sigils</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>none</v>
+        <v>Sigil</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>Common</v>
@@ -4783,11 +4795,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <v>120</v>
+      </c>
+      <c r="H16" s="4">
         <v>60</v>
       </c>
-      <c r="H16" s="4">
-        <v>30</v>
-      </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
@@ -4804,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="str">
-        <v>"Restores a some mind points."</v>
+        <v>Give your foe a 404 erorr.</v>
       </c>
       <c r="O16" s="4" t="str">
-        <v>"A basic sports drink that restores 30 MP to one ally."</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
+        <v>A basic Data sigil that deals minor data damage to a single enemy.</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <v>void</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -4860,8 +4872,8 @@
       <c r="AF16" s="4">
         <v>0</v>
       </c>
-      <c r="AG16" s="4">
-        <v>0</v>
+      <c r="AG16" s="4" t="str">
+        <v>Void</v>
       </c>
       <c r="AH16" s="4">
         <v>0</v>
@@ -4873,10 +4885,10 @@
         <v>0</v>
       </c>
       <c r="AK16" s="4" t="str">
-        <v>both</v>
+        <v>battle</v>
       </c>
       <c r="AL16" s="4" t="str">
-        <v>Ally</v>
+        <v>Enemy</v>
       </c>
       <c r="AM16" s="4">
         <v>0</v>
@@ -4885,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="AO16" s="4" t="str">
-        <v>"Heal 30 MP"</v>
-      </c>
-      <c r="AP16" s="4" t="str">
-        <v>"Heal 30 MP"</v>
+        <v>Deal 30 Data DMG</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>0</v>
       </c>
       <c r="AQ16" s="4">
         <v>0</v>
       </c>
-      <c r="AR16" s="4" t="str">
-        <v>none</v>
+      <c r="AR16" s="4">
+        <v>0</v>
       </c>
       <c r="AS16" s="4">
         <v>0</v>
@@ -4926,13 +4938,13 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
-        <v>MAT_001</v>
+        <v>CON_001</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>Rock</v>
+        <v>Health Drink</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>Materials</v>
+        <v>Consumables</v>
       </c>
       <c r="D17" s="4" t="str">
         <v>none</v>
@@ -4944,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -4958,17 +4970,17 @@
       <c r="K17" s="4">
         <v>99</v>
       </c>
-      <c r="L17" s="4" t="str">
-        <v>lowland_node</v>
+      <c r="L17" s="4">
+        <v>0</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="str">
-        <v>"Basic crafting material."</v>
+        <v>"Restores a bit of health."</v>
       </c>
       <c r="O17" s="4" t="str">
-        <v>"A small, common stone used in early-game crafting recipes."</v>
+        <v>"A basic sports drink that restores 50 HP to one ally."</v>
       </c>
       <c r="P17" s="4">
         <v>0</v>
@@ -5033,11 +5045,11 @@
       <c r="AJ17" s="4">
         <v>0</v>
       </c>
-      <c r="AK17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>0</v>
+      <c r="AK17" s="4" t="str">
+        <v>both</v>
+      </c>
+      <c r="AL17" s="4" t="str">
+        <v>Ally</v>
       </c>
       <c r="AM17" s="4">
         <v>0</v>
@@ -5045,17 +5057,17 @@
       <c r="AN17" s="4">
         <v>0</v>
       </c>
-      <c r="AO17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="4">
-        <v>0</v>
+      <c r="AO17" s="4" t="str">
+        <v>"Heal 50 HP"</v>
+      </c>
+      <c r="AP17" s="4" t="str">
+        <v>"Heal 50 HP"</v>
       </c>
       <c r="AQ17" s="4">
         <v>0</v>
       </c>
-      <c r="AR17" s="4">
-        <v>0</v>
+      <c r="AR17" s="4" t="str">
+        <v>none</v>
       </c>
       <c r="AS17" s="4">
         <v>0</v>
@@ -5087,13 +5099,13 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
-        <v>GIF_001</v>
+        <v>CON_002</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Earing</v>
+        <v>Mind Drink</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Gifts</v>
+        <v>Consumables</v>
       </c>
       <c r="D18" s="4" t="str">
         <v>none</v>
@@ -5105,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H18" s="4">
         <v>30</v>
@@ -5117,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="4">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -5126,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="str">
-        <v>"Simple silver earring."</v>
+        <v>"Restores a some mind points."</v>
       </c>
       <c r="O18" s="4" t="str">
-        <v>"A modest silver earring; some circle members love small accessories."</v>
+        <v>"A basic sports drink that restores 30 MP to one ally."</v>
       </c>
       <c r="P18" s="4">
         <v>0</v>
@@ -5194,11 +5206,11 @@
       <c r="AJ18" s="4">
         <v>0</v>
       </c>
-      <c r="AK18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="4">
-        <v>0</v>
+      <c r="AK18" s="4" t="str">
+        <v>both</v>
+      </c>
+      <c r="AL18" s="4" t="str">
+        <v>Ally</v>
       </c>
       <c r="AM18" s="4">
         <v>0</v>
@@ -5206,17 +5218,17 @@
       <c r="AN18" s="4">
         <v>0</v>
       </c>
-      <c r="AO18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="4">
-        <v>0</v>
+      <c r="AO18" s="4" t="str">
+        <v>"Heal 30 MP"</v>
+      </c>
+      <c r="AP18" s="4" t="str">
+        <v>"Heal 30 MP"</v>
       </c>
       <c r="AQ18" s="4">
         <v>0</v>
       </c>
-      <c r="AR18" s="4">
-        <v>0</v>
+      <c r="AR18" s="4" t="str">
+        <v>none</v>
       </c>
       <c r="AS18" s="4">
         <v>0</v>
@@ -5242,168 +5254,490 @@
       <c r="AZ18" s="4">
         <v>0</v>
       </c>
-      <c r="BA18" s="4" t="str">
-        <v>Fashion</v>
+      <c r="BA18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
-        <v>KEY_001</v>
+        <v>MAT_001</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>Family Picture</v>
+        <v>Rock</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>Key</v>
+        <v>Materials</v>
       </c>
       <c r="D19" s="4" t="str">
         <v>none</v>
       </c>
       <c r="E19" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>99</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <v>lowland_node</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <v>"Basic crafting material."</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <v>"A small, common stone used in early-game crafting recipes."</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
+        <v>GIF_001</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>Earing</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>Gifts</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v>Common</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>120</v>
+      </c>
+      <c r="H20" s="4">
+        <v>30</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <v>"Simple silver earring."</v>
+      </c>
+      <c r="O20" s="4" t="str">
+        <v>"A modest silver earring; some circle members love small accessories."</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="4" t="str">
+        <v>Fashion</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <v>KEY_001</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <v>Family Picture</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <v>Key</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <v>none</v>
+      </c>
+      <c r="E21" s="4" t="str">
         <v>Legendary</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4" t="str">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="str">
         <v>"A worn family photo."</v>
       </c>
-      <c r="O19" s="4" t="str">
+      <c r="O21" s="4" t="str">
         <v>"You can’t bring yourself to part with it. A key story keepsake."</v>
       </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="4" t="str">
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="4" t="str">
         <v>Family</v>
       </c>
-      <c r="AV19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="4">
+      <c r="AV21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6669,10 +7003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CBD075-C257-4FCD-AB92-B4C7D6AF494A}">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6912,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="s">
         <v>145</v>
@@ -6982,82 +7316,229 @@
       <c r="AE3" t="b">
         <v>1</v>
       </c>
+      <c r="AU3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>80</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>80</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA3" xr:uid="{0F56BBA4-2DA2-4026-9C35-1929447B45A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA1:BA5" xr:uid="{0F56BBA4-2DA2-4026-9C35-1929447B45A2}">
       <formula1>list_gift_type</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW3" xr:uid="{8C705DE9-A0BC-47A7-986A-13D3DA6DFF05}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW5" xr:uid="{8C705DE9-A0BC-47A7-986A-13D3DA6DFF05}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR3" xr:uid="{9784A87C-C778-4BEA-9A45-49EFF384D133}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR1:AR5" xr:uid="{9784A87C-C778-4BEA-9A45-49EFF384D133}">
       <formula1>list_capture_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL3" xr:uid="{A0ED3852-E602-4D8A-8D12-4E49C23F3847}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL5" xr:uid="{A0ED3852-E602-4D8A-8D12-4E49C23F3847}">
       <formula1>list_targeting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK3" xr:uid="{82858FF7-1981-4A30-A100-84690AB26E1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK5" xr:uid="{82858FF7-1981-4A30-A100-84690AB26E1A}">
       <formula1>list_use_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG3" xr:uid="{08EA0076-B1F0-444E-9A2A-13FAD47B31B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:AG5" xr:uid="{08EA0076-B1F0-444E-9A2A-13FAD47B31B1}">
       <formula1>list_sigil_school</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF3" xr:uid="{54A9D8F8-802A-4C5D-9410-9DFD356A35E1}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF5" xr:uid="{54A9D8F8-802A-4C5D-9410-9DFD356A35E1}">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC3" xr:uid="{487878E6-8A35-4571-BA6D-221F0DC83106}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC5" xr:uid="{487878E6-8A35-4571-BA6D-221F0DC83106}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA3" xr:uid="{7B1D9E86-0F5F-4C63-A06E-F1FE383A9EC4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA5" xr:uid="{7B1D9E86-0F5F-4C63-A06E-F1FE383A9EC4}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V3" xr:uid="{F0011205-85C1-4551-AE94-A9C466AABD8F}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V5" xr:uid="{F0011205-85C1-4551-AE94-A9C466AABD8F}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3" xr:uid="{F0D89B48-FF33-4AE1-852A-B036789B225A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q5" xr:uid="{F0D89B48-FF33-4AE1-852A-B036789B225A}">
       <formula1>list_watk_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3" xr:uid="{9E90C6BB-E2B5-4B9F-9481-80B8F85645D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P5" xr:uid="{9E90C6BB-E2B5-4B9F-9481-80B8F85645D7}">
       <formula1>list_mind_type</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3" xr:uid="{538D3006-960B-45E8-B904-CE8875CD617D}">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O5" xr:uid="{538D3006-960B-45E8-B904-CE8875CD617D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N3" xr:uid="{314C84D4-FDD7-4DCA-8D12-8DC62AEE2EE1}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N5" xr:uid="{314C84D4-FDD7-4DCA-8D12-8DC62AEE2EE1}">
       <formula1>120</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K3" xr:uid="{E6E8953B-1E9C-4FAE-A38B-B11C125B5F7A}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K5" xr:uid="{E6E8953B-1E9C-4FAE-A38B-B11C125B5F7A}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3 AE1:AE3" xr:uid="{A49A4F51-99E2-45BA-A552-5309AC79807B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J5 AE1:AE5" xr:uid="{A49A4F51-99E2-45BA-A552-5309AC79807B}">
       <formula1>list_boolean</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:I3 R1:U3 X1:Z3 AB1:AB3 AD1:AD3 AM1:AN3 AQ1:AQ3 AT1:AT3" xr:uid="{F367677A-F4C7-40EE-9F0C-B5F8808A1CA0}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT1:AT5 R1:U5 G1:I5 AM1:AN5 AQ1:AQ5 AD1:AD5 AB1:AB5 X1:Z5" xr:uid="{F367677A-F4C7-40EE-9F0C-B5F8808A1CA0}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3" xr:uid="{B26C4728-86B0-4349-A787-F8CD4223734A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E5" xr:uid="{B26C4728-86B0-4349-A787-F8CD4223734A}">
       <formula1>list_rarity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3" xr:uid="{C26A9A7C-646E-4BF6-8C46-F95249140B61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5" xr:uid="{C26A9A7C-646E-4BF6-8C46-F95249140B61}">
       <formula1>list_equip_slot</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3" xr:uid="{23A7A77B-56DE-446B-8691-04702DAFB88B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5" xr:uid="{23A7A77B-56DE-446B-8691-04702DAFB88B}">
       <formula1>list_category</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3" xr:uid="{EA0988DF-728D-4987-A49D-1A6B5C74E0DE}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5" xr:uid="{EA0988DF-728D-4987-A49D-1A6B5C74E0DE}">
       <formula1>1</formula1>
       <formula2>60</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8487,7 +8968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782F3198-6067-4BC9-81A1-E2DEF4C07151}">
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
